--- a/化学生命工学実験3/タンパク質実験/Results.xlsx
+++ b/化学生命工学実験3/タンパク質実験/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurayusaku/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurayusaku/univ/latex/化学生命工学実験3/タンパク質実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{987C0435-A38E-DD49-AC6B-9E09D81B6997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E68371-A561-9242-A84A-00A972571C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
+    <workbookView xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -88,11 +88,23 @@
     <t>max length</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>ブラッドフォード--------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1/50x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>B3(blank)</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -799,7 +811,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1611,6 +1623,495 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.8564720903064187E-2"/>
+                  <c:y val="-4.8055848241984576E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$39:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$39:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6000000000000041E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C73-944A-A8B7-49C732FF8F1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$39:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$D$40:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60B4-7B44-8E45-37BAED0B7557}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369828976"/>
+        <c:axId val="1930539728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369828976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ブラッドフォード溶液濃度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t> (mg/mL)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930539728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1930539728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>吸光度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369828976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1691,6 +2192,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2208,6 +2749,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2792,6 +3849,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38914947-B6AF-4216-E8C7-EF9EA9DA643E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3096,16 +4189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3140,7 +4233,7 @@
         <v>2.976</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3161,7 +4254,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3182,7 +4275,7 @@
         <v>1.6590000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3203,7 +4296,7 @@
         <v>1.0380000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3217,10 +4310,10 @@
         <v>207283</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3238,7 +4331,7 @@
         <v>3.1370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3256,7 +4349,7 @@
         <v>1.5649999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +4366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3304,7 +4397,7 @@
         <v>0.16036156678942082</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3334,8 +4427,12 @@
         <f>C13/2.987</f>
         <v>0.20723133578841646</v>
       </c>
+      <c r="M13">
+        <f>(3.137-1.0537)/8.3528</f>
+        <v>0.2494133703668231</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3362,11 +4459,11 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J13:J20" si="1">C14/2.987</f>
+        <f t="shared" ref="J14:J20" si="1">C14/2.987</f>
         <v>0.26648811516571813</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3397,7 +4494,7 @@
         <v>0.32875795112152661</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3596,6 +4693,175 @@
       <c r="E25">
         <f>10^D25</f>
         <v>25.538163035442938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0.8</v>
+      </c>
+      <c r="B39">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="C39">
+        <f>B39-0.828</f>
+        <v>1.2350000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0.4</v>
+      </c>
+      <c r="B40">
+        <v>1.046</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:C43" si="2">B40-0.828</f>
+        <v>0.21800000000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>0.2</v>
+      </c>
+      <c r="B41">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.16600000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>0.1</v>
+      </c>
+      <c r="B42">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0.10400000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>0.05</v>
+      </c>
+      <c r="B43">
+        <v>0.874</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000041E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>1.151</v>
+      </c>
+      <c r="C45">
+        <f>B45-0.828</f>
+        <v>0.32300000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>0.8</v>
+      </c>
+      <c r="B52">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="C52">
+        <f>B52-0.828</f>
+        <v>1.2350000000000003</v>
+      </c>
+      <c r="G52">
+        <f>(0.323+0.1235)/1.5395</f>
+        <v>0.29002923026956801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>0.4</v>
+      </c>
+      <c r="B53">
+        <v>1.046</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="3">B53-0.828</f>
+        <v>0.21800000000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>0.2</v>
+      </c>
+      <c r="B54">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>0.16600000000000004</v>
+      </c>
+      <c r="H54">
+        <f>(0.323-0.0475)/0.4588</f>
+        <v>0.60047951176983438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>0.10400000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>0.05</v>
+      </c>
+      <c r="B56">
+        <v>0.874</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>4.6000000000000041E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>1.151</v>
       </c>
     </row>
   </sheetData>
